--- a/IOT/www/fisicalab/datos.xlsx
+++ b/IOT/www/fisicalab/datos.xlsx
@@ -154,7 +154,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -167,7 +167,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -178,7 +178,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>23</v>
+        <v>1.05</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -189,7 +189,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>234324324344</v>
+        <v>3.1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -200,7 +200,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>5353</v>
+        <v>0.2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>

--- a/IOT/www/fisicalab/datos.xlsx
+++ b/IOT/www/fisicalab/datos.xlsx
@@ -173,12 +173,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.05</v>
+        <v>0.91</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -189,7 +189,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>3.1</v>
+        <v>0.13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -200,7 +200,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0.2</v>
+        <v>0.46</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
